--- a/data/trans_dic/P40B_R-Edad-trans_dic.xlsx
+++ b/data/trans_dic/P40B_R-Edad-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -504,7 +505,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K17"/>
+  <dimension ref="A1:N18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -526,12 +527,15 @@
     <col width="14" customWidth="1" min="9" max="9"/>
     <col width="14" customWidth="1" min="10" max="10"/>
     <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población cuyos estudios de más alto nivel terminados son estudios superiores o universitarios</t>
+          <t>Población cuyos estudios de más alto nivel terminados son estudios superiores o universitarios (tasa de respuesta: 99,85%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -542,20 +546,23 @@
       </c>
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
-      <c r="F1" s="3" t="inlineStr">
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
         <is>
           <t>Mujer</t>
         </is>
       </c>
-      <c r="G1" s="3" t="n"/>
       <c r="H1" s="3" t="n"/>
-      <c r="I1" s="3" t="inlineStr">
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="inlineStr">
         <is>
           <t>Total</t>
         </is>
       </c>
-      <c r="J1" s="3" t="n"/>
-      <c r="K1" s="3" t="n"/>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -577,32 +584,47 @@
       </c>
       <c r="F2" s="3" t="inlineStr">
         <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
           <t>M1</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
         </is>
       </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
         <is>
           <t>M1</t>
         </is>
       </c>
-      <c r="J2" s="3" t="inlineStr">
+      <c r="L2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="K2" s="3" t="inlineStr">
+      <c r="M2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
         </is>
       </c>
     </row>
@@ -618,6 +640,9 @@
       <c r="I3" s="2" t="n"/>
       <c r="J3" s="2" t="n"/>
       <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -632,47 +657,62 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>24,05%</t>
+          <t>26,9%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>23,89%</t>
+          <t>30,04%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>23,84%</t>
+          <t>25,41%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>33,25%</t>
+          <t>39,54%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>29,44%</t>
+          <t>49,02%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>28,67%</t>
+          <t>37,57%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>29,09%</t>
+          <t>36,86%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>26,62%</t>
+          <t>69,26%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>26,02%</t>
+          <t>39,66%</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>34,05%</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>31,02%</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>54,39%</t>
         </is>
       </c>
     </row>
@@ -685,47 +725,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>14,81; 36,81</t>
+          <t>12,64; 44,78</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>14,48; 35,64</t>
+          <t>14,32; 47,29</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>14,55; 36,2</t>
+          <t>12,13; 42,44</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>22,51; 45,07</t>
+          <t>24,0; 57,59</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>19,93; 40,55</t>
+          <t>33,12; 64,74</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>18,99; 39,67</t>
+          <t>22,8; 53,22</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>21,18; 36,61</t>
+          <t>22,25; 52,36</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>20,12; 34,67</t>
+          <t>54,42; 81,69</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>19,38; 34,07</t>
+          <t>28,72; 51,96</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>24,25; 45,58</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>21,29; 42,39</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>42,72; 65,67</t>
         </is>
       </c>
     </row>
@@ -742,47 +797,62 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>35,63%</t>
+          <t>32,9%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>34,17%</t>
+          <t>32,78%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>32,55%</t>
+          <t>30,87%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>48,9%</t>
+          <t>28,33%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>38,5%</t>
+          <t>55,93%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>38,46%</t>
+          <t>47,43%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>42,45%</t>
+          <t>48,27%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>36,32%</t>
+          <t>53,82%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>35,37%</t>
+          <t>44,26%</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>39,65%</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>38,71%</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>38,94%</t>
         </is>
       </c>
     </row>
@@ -795,47 +865,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>23,24; 49,19</t>
+          <t>17,2; 51,09</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>22,93; 47,74</t>
+          <t>17,63; 51,39</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>19,89; 46,43</t>
+          <t>15,05; 48,82</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>38,14; 58,31</t>
+          <t>11,77; 47,24</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>28,35; 49,62</t>
+          <t>43,37; 68,5</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>28,27; 49,51</t>
+          <t>35,01; 60,52</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>33,21; 50,99</t>
+          <t>34,96; 60,65</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>28,15; 44,43</t>
+          <t>40,94; 68,59</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>26,46; 43,44</t>
+          <t>31,29; 55,58</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>28,12; 51,35</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>26,89; 51,47</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>25,35; 52,05</t>
         </is>
       </c>
     </row>
@@ -852,47 +937,62 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>49,66%</t>
+          <t>57,33%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>42,21%</t>
+          <t>51,53%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>39,36%</t>
+          <t>50,13%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>56,84%</t>
+          <t>48,19%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>55,05%</t>
+          <t>61,16%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>54,03%</t>
+          <t>60,51%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>53,52%</t>
+          <t>59,7%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>49,01%</t>
+          <t>57,7%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>46,87%</t>
+          <t>59,65%</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>57,0%</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>55,8%</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>53,6%</t>
         </is>
       </c>
     </row>
@@ -905,47 +1005,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>39,02; 59,59</t>
+          <t>45,27; 69,97</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>32,27; 52,43</t>
+          <t>39,01; 65,11</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>28,53; 50,36</t>
+          <t>37,59; 63,66</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>47,91; 64,79</t>
+          <t>35,46; 61,3</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>46,31; 63,46</t>
+          <t>51,47; 70,94</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>44,93; 62,43</t>
+          <t>50,87; 69,39</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>47,19; 60,51</t>
+          <t>49,69; 68,76</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>42,18; 56,02</t>
+          <t>47,59; 67,7</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>39,39; 54,04</t>
+          <t>50,31; 66,97</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>47,33; 63,9</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>46,12; 62,82</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>44,35; 61,45</t>
         </is>
       </c>
     </row>
@@ -962,47 +1077,62 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>41,57%</t>
+          <t>44,86%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>38,81%</t>
+          <t>43,64%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>38,02%</t>
+          <t>42,9%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>44,81%</t>
+          <t>38,14%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>39,31%</t>
+          <t>48,26%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>38,17%</t>
+          <t>40,11%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>43,35%</t>
+          <t>39,29%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>39,08%</t>
+          <t>37,72%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>38,1%</t>
+          <t>46,7%</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>41,75%</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>41,01%</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>37,93%</t>
         </is>
       </c>
     </row>
@@ -1015,47 +1145,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>33,14; 49,28</t>
+          <t>33,78; 55,0</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>30,27; 47,87</t>
+          <t>33,19; 54,59</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>29,49; 47,12</t>
+          <t>32,3; 54,04</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>37,55; 52,46</t>
+          <t>27,42; 49,29</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>32,17; 46,36</t>
+          <t>38,04; 57,5</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>30,6; 45,03</t>
+          <t>31,16; 50,19</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>37,71; 48,67</t>
+          <t>30,58; 49,45</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>33,58; 44,86</t>
+          <t>28,46; 47,85</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>32,73; 44,01</t>
+          <t>39,36; 53,84</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>34,7; 49,39</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>33,84; 48,68</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>31,08; 45,07</t>
         </is>
       </c>
     </row>
@@ -1072,47 +1217,62 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>23,64%</t>
+          <t>23,24%</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>24,83%</t>
+          <t>29,46%</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>23,72%</t>
+          <t>27,6%</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>28,26%</t>
+          <t>23,62%</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>22,57%</t>
+          <t>37,41%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>21,64%</t>
+          <t>24,77%</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
+          <t>23,62%</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>21,52%</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>29,29%</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>27,51%</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
           <t>25,89%</t>
         </is>
       </c>
-      <c r="J12" s="2" t="inlineStr">
-        <is>
-          <t>23,75%</t>
-        </is>
-      </c>
-      <c r="K12" s="2" t="inlineStr">
-        <is>
-          <t>22,71%</t>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>22,63%</t>
         </is>
       </c>
     </row>
@@ -1125,47 +1285,62 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>16,36; 31,99</t>
+          <t>13,75; 33,76</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>16,09; 37,6</t>
+          <t>17,2; 46,16</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>15,4; 35,22</t>
+          <t>16,0; 42,26</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>21,12; 37,57</t>
+          <t>12,97; 37,67</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>16,31; 31,59</t>
+          <t>25,01; 52,12</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>15,61; 30,51</t>
+          <t>15,09; 38,53</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>20,74; 32,54</t>
+          <t>14,31; 37,39</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>18,18; 30,95</t>
+          <t>12,29; 34,74</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>17,41; 29,53</t>
+          <t>21,08; 37,97</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>20,16; 40,76</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>18,91; 36,95</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>16,2; 33,6</t>
         </is>
       </c>
     </row>
@@ -1182,47 +1357,62 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>22,66%</t>
+          <t>33,72%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>20,43%</t>
+          <t>28,76%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>19,58%</t>
+          <t>28,09%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>9,55%</t>
+          <t>30,09%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>8,97%</t>
+          <t>12,2%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>7,68%</t>
+          <t>11,92%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>15,39%</t>
+          <t>10,83%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>14,1%</t>
+          <t>8,04%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>13,03%</t>
+          <t>22,04%</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>19,56%</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>18,58%</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>16,76%</t>
         </is>
       </c>
     </row>
@@ -1235,47 +1425,62 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>14,67; 32,98</t>
+          <t>20,41; 49,49</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>12,27; 31,05</t>
+          <t>16,23; 44,25</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>11,67; 29,96</t>
+          <t>15,79; 43,56</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>4,79; 18,0</t>
+          <t>17,34; 45,38</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>4,22; 16,88</t>
+          <t>5,79; 24,5</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>3,57; 14,59</t>
+          <t>5,36; 23,2</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>10,57; 21,62</t>
+          <t>4,83; 21,73</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>9,28; 19,79</t>
+          <t>3,11; 18,45</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>8,28; 18,17</t>
+          <t>13,69; 31,5</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>11,92; 28,49</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>11,19; 27,35</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>9,69; 24,78</t>
         </is>
       </c>
     </row>
@@ -1292,47 +1497,62 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>34,27%</t>
+          <t>37,64%</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>31,93%</t>
+          <t>36,96%</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>30,45%</t>
+          <t>34,9%</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>38,52%</t>
+          <t>34,73%</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>34,71%</t>
+          <t>47,0%</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>33,41%</t>
+          <t>40,69%</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>36,53%</t>
+          <t>39,69%</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>33,37%</t>
+          <t>40,87%</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>31,94%</t>
+          <t>42,65%</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>38,91%</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>37,35%</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>37,88%</t>
         </is>
       </c>
     </row>
@@ -1345,64 +1565,1712 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>30,06; 38,37</t>
+          <t>31,55; 43,13</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>28,26; 36,81</t>
+          <t>30,44; 42,29</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>26,7; 35,31</t>
+          <t>28,24; 40,48</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>34,78; 42,42</t>
+          <t>27,27; 40,43</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>30,99; 38,4</t>
+          <t>42,18; 51,73</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>29,71; 37,04</t>
+          <t>36,04; 45,53</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>33,81; 39,34</t>
+          <t>35,04; 44,43</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>30,76; 36,3</t>
+          <t>35,61; 46,12</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>29,21; 34,7</t>
+          <t>38,82; 46,36</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>35,09; 42,92</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>33,41; 41,24</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>33,09; 42,08</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
       </c>
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="C1:E1"/>
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
-    <mergeCell ref="F1:H1"/>
-    <mergeCell ref="I1:K1"/>
+    <mergeCell ref="A10:A11"/>
     <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:F1"/>
     <mergeCell ref="A16:A17"/>
+    <mergeCell ref="G1:J1"/>
     <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="K1:N1"/>
     <mergeCell ref="A14:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:N25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población cuyos estudios de más alto nivel terminados son estudios superiores o universitarios (tasa de respuesta: 99,85%)</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>M1</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>M1</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>M1</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>16-24</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>8.0</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>10.0</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>10.0</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>13.0</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>22.0</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>18.0</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>18.0</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>31.0</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>30.0</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>28.0</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>28.0</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>44.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>23164</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>31756</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>32417</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>57655</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>57625</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>45118</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>45165</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>100778</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>80789</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>76874</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>77582</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>158433</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>10881; 38557</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>15136; 49992</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>15474; 54135</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>34990; 83972</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>38935; 76117</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>27382; 63903</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>27261; 64159</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>79184; 118856</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>58497; 105828</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>54766; 102913</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>53240; 106007</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>124450; 191285</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>25-34</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>17.0</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>18.0</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>18.0</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>18.0</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>31.0</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>26.0</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>27.0</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>32.0</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>48.0</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>44.0</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>45.0</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>50.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>45012</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>47000</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>47630</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>64507</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>74559</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>60102</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>60973</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>87397</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>119571</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>107102</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>108603</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>151904</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>23530; 69902</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>25276; 73686</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>23222; 75315</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>26811; 107553</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>57811; 91313</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>44361; 76682</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>44163; 76607</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>66476; 111378</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>84523; 150132</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>75963; 138699</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>75453; 144406</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>98898; 203011</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>35-44</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>33.0</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>31.0</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>31.0</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>31.0</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>62.0</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>62.0</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>62.0</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>59.0</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>95.0</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>93.0</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>93.0</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>90.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>80103</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>69239</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>69001</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>86859</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>131730</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>126683</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>119676</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>137055</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>211833</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>195921</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>188677</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>223915</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>63247; 97773</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>52409; 87488</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>51735; 87622</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>63924; 110501</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>110858; 152801</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>106506; 145284</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>99616; 137841</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>113039; 160787</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>178659; 237820</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>162701; 219644</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>155943; 212384</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>185284; 256715</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>45-54</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>36.0</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>35.0</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>35.0</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>32.0</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>49.0</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>41.0</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>41.0</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>40.0</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>85.0</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>76.0</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>76.0</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>72.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>73342</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>70355</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>67015</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>76816</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>92317</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>74574</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>67766</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>79464</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>165659</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>144929</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>134781</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>156280</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>55222; 89918</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>53510; 88004</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>50456; 84412</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>55233; 99267</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>72769; 109978</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>57942; 93313</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>52746; 85277</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>59955; 100796</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>139641; 191008</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>120450; 171458</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>111229; 159988</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>128078; 185715</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>55-64</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>17.0</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>17.0</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>17.0</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
+          <t>15.0</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>19.0</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>13.0</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>13.0</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>13.0</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>36.0</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>30.0</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>30.0</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>28.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>32275</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>38908</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>34001</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>36530</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>38708</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>23240</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>21887</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>29489</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>70983</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>62149</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>55888</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>66019</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>19095; 46886</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>22723; 60967</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>19709; 52063</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>20065; 58253</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>25879; 53936</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>14155; 36149</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>13260; 34647</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>16843; 47618</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>51096; 92029</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>45532; 92077</t>
+        </is>
+      </c>
+      <c r="M18" s="2" t="inlineStr">
+        <is>
+          <t>40818; 79763</t>
+        </is>
+      </c>
+      <c r="N18" s="2" t="inlineStr">
+        <is>
+          <t>47255; 98019</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>65 Y MAS</t>
+        </is>
+      </c>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C19" s="2" t="inlineStr">
+        <is>
+          <t>13.0</t>
+        </is>
+      </c>
+      <c r="D19" s="2" t="inlineStr">
+        <is>
+          <t>11.0</t>
+        </is>
+      </c>
+      <c r="E19" s="2" t="inlineStr">
+        <is>
+          <t>11.0</t>
+        </is>
+      </c>
+      <c r="F19" s="2" t="inlineStr">
+        <is>
+          <t>13.0</t>
+        </is>
+      </c>
+      <c r="G19" s="2" t="inlineStr">
+        <is>
+          <t>6.0</t>
+        </is>
+      </c>
+      <c r="H19" s="2" t="inlineStr">
+        <is>
+          <t>6.0</t>
+        </is>
+      </c>
+      <c r="I19" s="2" t="inlineStr">
+        <is>
+          <t>6.0</t>
+        </is>
+      </c>
+      <c r="J19" s="2" t="inlineStr">
+        <is>
+          <t>5.0</t>
+        </is>
+      </c>
+      <c r="K19" s="2" t="inlineStr">
+        <is>
+          <t>19.0</t>
+        </is>
+      </c>
+      <c r="L19" s="2" t="inlineStr">
+        <is>
+          <t>17.0</t>
+        </is>
+      </c>
+      <c r="M19" s="2" t="inlineStr">
+        <is>
+          <t>17.0</t>
+        </is>
+      </c>
+      <c r="N19" s="2" t="inlineStr">
+        <is>
+          <t>18.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n"/>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="inlineStr">
+        <is>
+          <t>30426</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>25120</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
+          <t>25318</t>
+        </is>
+      </c>
+      <c r="F20" s="2" t="inlineStr">
+        <is>
+          <t>41471</t>
+        </is>
+      </c>
+      <c r="G20" s="2" t="inlineStr">
+        <is>
+          <t>13058</t>
+        </is>
+      </c>
+      <c r="H20" s="2" t="inlineStr">
+        <is>
+          <t>12532</t>
+        </is>
+      </c>
+      <c r="I20" s="2" t="inlineStr">
+        <is>
+          <t>11974</t>
+        </is>
+      </c>
+      <c r="J20" s="2" t="inlineStr">
+        <is>
+          <t>16956</t>
+        </is>
+      </c>
+      <c r="K20" s="2" t="inlineStr">
+        <is>
+          <t>43484</t>
+        </is>
+      </c>
+      <c r="L20" s="2" t="inlineStr">
+        <is>
+          <t>37652</t>
+        </is>
+      </c>
+      <c r="M20" s="2" t="inlineStr">
+        <is>
+          <t>37292</t>
+        </is>
+      </c>
+      <c r="N20" s="2" t="inlineStr">
+        <is>
+          <t>58428</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C21" s="2" t="inlineStr">
+        <is>
+          <t>18413; 44662</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="inlineStr">
+        <is>
+          <t>14175; 38649</t>
+        </is>
+      </c>
+      <c r="E21" s="2" t="inlineStr">
+        <is>
+          <t>14230; 39261</t>
+        </is>
+      </c>
+      <c r="F21" s="2" t="inlineStr">
+        <is>
+          <t>23901; 62548</t>
+        </is>
+      </c>
+      <c r="G21" s="2" t="inlineStr">
+        <is>
+          <t>6200; 26218</t>
+        </is>
+      </c>
+      <c r="H21" s="2" t="inlineStr">
+        <is>
+          <t>5632; 24392</t>
+        </is>
+      </c>
+      <c r="I21" s="2" t="inlineStr">
+        <is>
+          <t>5337; 24031</t>
+        </is>
+      </c>
+      <c r="J21" s="2" t="inlineStr">
+        <is>
+          <t>6555; 38887</t>
+        </is>
+      </c>
+      <c r="K21" s="2" t="inlineStr">
+        <is>
+          <t>26995; 62146</t>
+        </is>
+      </c>
+      <c r="L21" s="2" t="inlineStr">
+        <is>
+          <t>22941; 54842</t>
+        </is>
+      </c>
+      <c r="M21" s="2" t="inlineStr">
+        <is>
+          <t>22456; 54910</t>
+        </is>
+      </c>
+      <c r="N21" s="2" t="inlineStr">
+        <is>
+          <t>33798; 86385</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C22" s="2" t="inlineStr">
+        <is>
+          <t>124.0</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>122.0</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
+          <t>122.0</t>
+        </is>
+      </c>
+      <c r="F22" s="2" t="inlineStr">
+        <is>
+          <t>122.0</t>
+        </is>
+      </c>
+      <c r="G22" s="2" t="inlineStr">
+        <is>
+          <t>189.0</t>
+        </is>
+      </c>
+      <c r="H22" s="2" t="inlineStr">
+        <is>
+          <t>166.0</t>
+        </is>
+      </c>
+      <c r="I22" s="2" t="inlineStr">
+        <is>
+          <t>167.0</t>
+        </is>
+      </c>
+      <c r="J22" s="2" t="inlineStr">
+        <is>
+          <t>180.0</t>
+        </is>
+      </c>
+      <c r="K22" s="2" t="inlineStr">
+        <is>
+          <t>313.0</t>
+        </is>
+      </c>
+      <c r="L22" s="2" t="inlineStr">
+        <is>
+          <t>288.0</t>
+        </is>
+      </c>
+      <c r="M22" s="2" t="inlineStr">
+        <is>
+          <t>289.0</t>
+        </is>
+      </c>
+      <c r="N22" s="2" t="inlineStr">
+        <is>
+          <t>302.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C23" s="2" t="inlineStr">
+        <is>
+          <t>284322</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="inlineStr">
+        <is>
+          <t>282378</t>
+        </is>
+      </c>
+      <c r="E23" s="2" t="inlineStr">
+        <is>
+          <t>275383</t>
+        </is>
+      </c>
+      <c r="F23" s="2" t="inlineStr">
+        <is>
+          <t>363838</t>
+        </is>
+      </c>
+      <c r="G23" s="2" t="inlineStr">
+        <is>
+          <t>407998</t>
+        </is>
+      </c>
+      <c r="H23" s="2" t="inlineStr">
+        <is>
+          <t>342249</t>
+        </is>
+      </c>
+      <c r="I23" s="2" t="inlineStr">
+        <is>
+          <t>327440</t>
+        </is>
+      </c>
+      <c r="J23" s="2" t="inlineStr">
+        <is>
+          <t>451139</t>
+        </is>
+      </c>
+      <c r="K23" s="2" t="inlineStr">
+        <is>
+          <t>692319</t>
+        </is>
+      </c>
+      <c r="L23" s="2" t="inlineStr">
+        <is>
+          <t>624627</t>
+        </is>
+      </c>
+      <c r="M23" s="2" t="inlineStr">
+        <is>
+          <t>602823</t>
+        </is>
+      </c>
+      <c r="N23" s="2" t="inlineStr">
+        <is>
+          <t>814978</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n"/>
+      <c r="B24" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C24" s="2" t="inlineStr">
+        <is>
+          <t>238265; 325774</t>
+        </is>
+      </c>
+      <c r="D24" s="2" t="inlineStr">
+        <is>
+          <t>232593; 323130</t>
+        </is>
+      </c>
+      <c r="E24" s="2" t="inlineStr">
+        <is>
+          <t>222849; 319405</t>
+        </is>
+      </c>
+      <c r="F24" s="2" t="inlineStr">
+        <is>
+          <t>285665; 423610</t>
+        </is>
+      </c>
+      <c r="G24" s="2" t="inlineStr">
+        <is>
+          <t>366112; 449043</t>
+        </is>
+      </c>
+      <c r="H24" s="2" t="inlineStr">
+        <is>
+          <t>303126; 382931</t>
+        </is>
+      </c>
+      <c r="I24" s="2" t="inlineStr">
+        <is>
+          <t>289107; 366565</t>
+        </is>
+      </c>
+      <c r="J24" s="2" t="inlineStr">
+        <is>
+          <t>393078; 509084</t>
+        </is>
+      </c>
+      <c r="K24" s="2" t="inlineStr">
+        <is>
+          <t>630148; 752580</t>
+        </is>
+      </c>
+      <c r="L24" s="2" t="inlineStr">
+        <is>
+          <t>563213; 688996</t>
+        </is>
+      </c>
+      <c r="M24" s="2" t="inlineStr">
+        <is>
+          <t>539250; 665667</t>
+        </is>
+      </c>
+      <c r="N24" s="2" t="inlineStr">
+        <is>
+          <t>711913; 905307</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="11">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:J1"/>
+    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>